--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1905.788371868452</v>
+        <v>405.710594146311</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.89947500159131</v>
+        <v>53.71059414631097</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.44318107835704</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.51207794520845</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1513.67000000001</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.15</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,53 +631,9 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -799,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.77588400245558</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.18449368032031</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.81550631967969</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.36141549125986</v>
+        <v>40.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.18700298823897</v>
+        <v>43.13729949371544</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44.08963008478587</v>
+        <v>35.42779881720021</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,7 +1031,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1089,7 +1045,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1103,7 +1059,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1117,7 +1073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1131,7 +1087,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1140,90 +1096,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9150000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1337,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>161.4200000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -1348,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>171.0650000000007</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -1359,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3550000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>167.5300000000007</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7800000000006</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1392,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>183.4250000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1403,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>182.3350000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1414,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>191.2700000000006</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>186.8900000000006</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1436,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1447,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1458,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1469,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1480,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1502,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1513,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1524,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1546,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1557,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1568,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1579,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1590,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1601,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.9150000000006</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -1612,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>161.4200000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1623,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>171.0650000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>169.3550000000007</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1645,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>167.5300000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1656,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>99.54499999999936</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1667,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>92.51499999999935</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -1678,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0699999999993</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -1689,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>90.09499999999935</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -1700,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>102.7799999999993</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -1711,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7800000000006</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -1722,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>183.4250000000006</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
@@ -1733,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>182.3350000000006</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -1744,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>191.2700000000006</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
@@ -1755,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>186.8900000000006</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.91500000000065</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1813,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>61.42000000000067</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1824,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06500000000065</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1835,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>69.35500000000067</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1846,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>67.53000000000065</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1857,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1868,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1879,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06999999999934658</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1890,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1901,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.779999999999347</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1912,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>72.78000000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1923,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>83.42500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1934,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>82.33500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1945,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>91.27000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1956,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.89000000000058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2014,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2025,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2036,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2047,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2113,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2124,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2135,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2146,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2157,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2168,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2179,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2190,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2201,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2212,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2223,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2234,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2245,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2256,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2267,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,50 +2288,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
